--- a/extracted_excel/Uasin_gendered_enterprise.xlsx
+++ b/extracted_excel/Uasin_gendered_enterprise.xlsx
@@ -14,10 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="71">
-  <si>
-    <t>County</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="69">
   <si>
     <t>Theme</t>
   </si>
@@ -28,9 +25,6 @@
     <t>Response</t>
   </si>
   <si>
-    <t>Uasin</t>
-  </si>
-  <si>
     <t>Enterprise Selection and Community Involvement</t>
   </si>
   <si>
@@ -142,7 +136,7 @@
     <t>What kinds of support (financial, technical, policy) would make it easier for women and marginalized groups to thrive?</t>
   </si>
   <si>
-    <t>Public participation and the input from the technical team from the directorates of livestock and agriculture. The experts first suggested then later subjected to public participation. one of the criteria was suitability of a value chain with an AEZ. Profitability. Considered gender and nutritional needs within the house hold for the case of chicken.</t>
+    <t>Public participation and the input from the technical team from the directorates of livestock and agriculture. The experts first suggested then later subjected to public participation. one of the criteria was suitability of a value chain with an AEZ. Considered gender and nutritional needs within the house hold for the case of chicken.</t>
   </si>
   <si>
     <t>They were deliberately invited and grouped in the meetings</t>
@@ -181,7 +175,7 @@
     <t>limited digital skills. They rely on their sons and daughters. They rely on radio or TV, and word of mouth from the chiefs, etc Limited time: Women are mostly busy with household chores and hence limited time for using the technology: They rely on the media ,also utilize organized meetings cost of the digital gadgets;investing in women dorminated enterprises so as to generate income,perticipation in chamas and merry go round etc, acquire gadgets that are being issued on credit.</t>
   </si>
   <si>
-    <t>a.land, Elderly Men mostly own the land. Access is available to all but in varying degrees. The ownership for the other gender groups is temporary b.Finance-the overall financial landscape for access including the informal such as community Savings and loans associations) Saccos, banks, insurance services Olderly Men easily access formal financial services since they have collaterals etc. There is an on going model of extension the county is the process of actualizing to have one sacco per ward, this is accessible. Resent studies indicate that majority of CIG (Common interest groups) are women. Women access informal financial services like Chama ,merry go round etc c. Access to training and knowledge/extension both men and women have equal attendance to the training depending on the type of training being conducted d. Access to information (such as market, weather) Men and youth have more access to information as women mostly are left attending to house chores e.Access to technology eg ICT, digital gadgets, internet, digital literacy Youth lead in this.</t>
+    <t>a.land, Elderly Men mostly own the land. Access is available to all but in varying degrees. The ownership for the other gender groups is temporary b.Finance-the overall financial landscape for access including the informal such as community Savings and loans associations) Saccos, banks, insurance services Olderly Men easily access formal financial services since they have collaterals etc. There is an on going model of extension the county is the process of actualizing to have one sacco per ward, this is accessible. Resent studies indicate that majority of CIG (Common interest groups) are women. Women access informal financial services like Chama ,merry go round etc  c. Access to training and knowledge/extension both men and women have equal attendance to the training depending on the type of training being conducted d. Access to information (such as market, weather) Men and youth have more access to information as women mostly are left attending to house chores e.Access to technology eg ICT, digital gadgets, internet, digital literacy Youth lead in this.</t>
   </si>
   <si>
     <t>Erratic depending on levels of supply and demand. Determined by the market forces</t>
@@ -217,7 +211,7 @@
     <t>Women selfhelp groups and CBOs. Selfhelp groups are spread across the county. There are some that are put in place and if reworked, they can enhance women's collective voices. One example is Happy Ladies registered as a CBO</t>
   </si>
   <si>
-    <t>Marketing policies, financial support policies</t>
+    <t>Yes Marketing policies, financial support policies</t>
   </si>
   <si>
     <t>Support women to commecialize their enterprises , full implementation of existing policies, Affirmative action on land ownership and use, intervention through organized groups</t>
@@ -584,13 +578,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -600,414 +594,324 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
         <v>13</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>4</v>
       </c>
       <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
         <v>6</v>
       </c>
-      <c r="C8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="B12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
         <v>7</v>
       </c>
-      <c r="C9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
         <v>7</v>
       </c>
-      <c r="C10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
         <v>8</v>
       </c>
-      <c r="C12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" t="s">
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
         <v>8</v>
       </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14" t="s">
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
         <v>9</v>
       </c>
-      <c r="C14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15" t="s">
+      <c r="B21" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
         <v>9</v>
       </c>
-      <c r="C15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" t="s">
-        <v>4</v>
-      </c>
-      <c r="B16" t="s">
+      <c r="B22" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
         <v>10</v>
       </c>
-      <c r="C16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" t="s">
-        <v>4</v>
-      </c>
-      <c r="B17" t="s">
+      <c r="B24" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
         <v>10</v>
       </c>
-      <c r="C17" t="s">
-        <v>28</v>
-      </c>
-      <c r="D17" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" t="s">
-        <v>4</v>
-      </c>
-      <c r="B18" t="s">
+      <c r="B25" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
         <v>10</v>
       </c>
-      <c r="C18" t="s">
-        <v>29</v>
-      </c>
-      <c r="D18" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" t="s">
-        <v>4</v>
-      </c>
-      <c r="B19" t="s">
+      <c r="B26" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
         <v>10</v>
       </c>
-      <c r="C19" t="s">
-        <v>30</v>
-      </c>
-      <c r="D19" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" t="s">
-        <v>4</v>
-      </c>
-      <c r="B20" t="s">
+      <c r="B27" t="s">
+        <v>36</v>
+      </c>
+      <c r="C27" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
         <v>10</v>
       </c>
-      <c r="C20" t="s">
-        <v>31</v>
-      </c>
-      <c r="D20" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" t="s">
-        <v>4</v>
-      </c>
-      <c r="B21" t="s">
-        <v>11</v>
-      </c>
-      <c r="C21" t="s">
-        <v>32</v>
-      </c>
-      <c r="D21" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" t="s">
-        <v>4</v>
-      </c>
-      <c r="B22" t="s">
-        <v>11</v>
-      </c>
-      <c r="C22" t="s">
-        <v>33</v>
-      </c>
-      <c r="D22" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" t="s">
-        <v>4</v>
-      </c>
-      <c r="B23" t="s">
-        <v>11</v>
-      </c>
-      <c r="C23" t="s">
-        <v>34</v>
-      </c>
-      <c r="D23" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" t="s">
-        <v>4</v>
-      </c>
-      <c r="B24" t="s">
-        <v>12</v>
-      </c>
-      <c r="C24" t="s">
-        <v>35</v>
-      </c>
-      <c r="D24" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" t="s">
-        <v>4</v>
-      </c>
-      <c r="B25" t="s">
-        <v>12</v>
-      </c>
-      <c r="C25" t="s">
-        <v>36</v>
-      </c>
-      <c r="D25" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" t="s">
-        <v>4</v>
-      </c>
-      <c r="B26" t="s">
-        <v>12</v>
-      </c>
-      <c r="C26" t="s">
+      <c r="B28" t="s">
         <v>37</v>
       </c>
-      <c r="D26" t="s">
+      <c r="C28" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
-      <c r="A27" t="s">
-        <v>4</v>
-      </c>
-      <c r="B27" t="s">
-        <v>12</v>
-      </c>
-      <c r="C27" t="s">
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29" t="s">
         <v>38</v>
       </c>
-      <c r="D27" t="s">
+      <c r="C29" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
-      <c r="A28" t="s">
-        <v>4</v>
-      </c>
-      <c r="B28" t="s">
-        <v>12</v>
-      </c>
-      <c r="C28" t="s">
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30" t="s">
         <v>39</v>
       </c>
-      <c r="D28" t="s">
+      <c r="C30" t="s">
         <v>68</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" t="s">
-        <v>4</v>
-      </c>
-      <c r="B29" t="s">
-        <v>12</v>
-      </c>
-      <c r="C29" t="s">
-        <v>40</v>
-      </c>
-      <c r="D29" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" t="s">
-        <v>4</v>
-      </c>
-      <c r="B30" t="s">
-        <v>12</v>
-      </c>
-      <c r="C30" t="s">
-        <v>41</v>
-      </c>
-      <c r="D30" t="s">
-        <v>70</v>
       </c>
     </row>
   </sheetData>
